--- a/data/VIC_COVID19_DAILY_DATA_20221029.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA_20221029.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid\github\covid19\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9F6915-7755-4EB0-A526-79B3DB125F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDD97A4-2B02-4DF1-A7F1-D852155EDC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="4770" windowWidth="14415" windowHeight="9435" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +410,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,5 +1707,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>